--- a/data/trans_orig/P9_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P9_2_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A72FDEE1-77FB-41A0-BCD8-A3B78C984E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C9539A-5710-4912-9640-F477F67A1D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6EDB9EEC-58E1-45D5-91EB-13644054B637}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9606D2DD-04C1-4718-8751-E8D43C1AD469}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,08%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,92%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>7,93%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,49 @@
     <t>8,16%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>89,91%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>89,15%</t>
   </si>
   <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,1084 +248,1054 @@
     <t>8,86%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>88,91%</t>
   </si>
   <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>11,8%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>80,89%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>8,99%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>91,01%</t>
   </si>
   <si>
     <t>80,6%</t>
   </si>
   <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>17,43%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>10,96%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>12,11%</t>
   </si>
   <si>
     <t>85,65%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>82,57%</t>
   </si>
   <si>
     <t>83,44%</t>
   </si>
   <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>89,04%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>87,79%</t>
+    <t>87,89%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>10,83%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>89,17%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>17,15%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>82,85%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE85DFAF-BB0E-4137-9737-C8DE424A9551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D4E9F1-A3F1-4D87-9C23-10A7E3958D75}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2180,10 +2144,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -2192,13 +2156,13 @@
         <v>131014</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -2207,13 +2171,13 @@
         <v>209458</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2192,13 @@
         <v>883356</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>788</v>
@@ -2243,13 +2207,13 @@
         <v>837379</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1608</v>
@@ -2258,13 +2222,13 @@
         <v>1720735</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2284,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2332,13 +2296,13 @@
         <v>60084</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2347,13 +2311,13 @@
         <v>114677</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -2362,13 +2326,13 @@
         <v>174761</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2347,13 @@
         <v>618425</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
@@ -2398,13 +2362,13 @@
         <v>569164</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1164</v>
@@ -2413,13 +2377,13 @@
         <v>1187589</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,7 +2439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2487,13 +2451,13 @@
         <v>76000</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>166</v>
@@ -2502,13 +2466,13 @@
         <v>176153</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>249</v>
@@ -2517,13 +2481,13 @@
         <v>252153</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2502,13 @@
         <v>866222</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>831</v>
@@ -2553,13 +2517,13 @@
         <v>862459</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1742</v>
@@ -2568,13 +2532,13 @@
         <v>1728681</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,10 +2609,10 @@
         <v>51</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>474</v>
@@ -2657,13 +2621,13 @@
         <v>493667</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>745</v>
@@ -2672,13 +2636,13 @@
         <v>761106</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2657,13 @@
         <v>3009106</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>2823</v>
@@ -2708,28 +2672,28 @@
         <v>2885531</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>5766</v>
       </c>
       <c r="N20" s="7">
-        <v>5894634</v>
+        <v>5894635</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2735,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2785,7 +2749,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86C243B-1A80-4778-826B-36BE625BB7A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B786C-4608-47B2-BF4A-0E3AD11F7A77}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2823,7 +2787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,13 +2894,13 @@
         <v>15410</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2945,13 +2909,13 @@
         <v>28804</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -2960,13 +2924,13 @@
         <v>44214</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2945,13 @@
         <v>100355</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -2996,13 +2960,13 @@
         <v>83101</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>177</v>
@@ -3011,13 +2975,13 @@
         <v>183456</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3049,13 @@
         <v>69332</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -3100,13 +3064,13 @@
         <v>117214</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -3115,13 +3079,13 @@
         <v>186545</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3100,13 @@
         <v>518372</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>440</v>
@@ -3151,13 +3115,13 @@
         <v>467931</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -3166,13 +3130,13 @@
         <v>986304</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3204,13 @@
         <v>120733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
@@ -3255,13 +3219,13 @@
         <v>228348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>317</v>
@@ -3270,13 +3234,13 @@
         <v>349081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,16 +3252,16 @@
         <v>825</v>
       </c>
       <c r="D11" s="7">
-        <v>896294</v>
+        <v>896293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>732</v>
@@ -3306,13 +3270,13 @@
         <v>802772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -3321,13 +3285,13 @@
         <v>1699065</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3303,7 @@
         <v>935</v>
       </c>
       <c r="D12" s="7">
-        <v>1017027</v>
+        <v>1017026</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3383,7 +3347,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3395,13 +3359,13 @@
         <v>65966</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -3410,13 +3374,13 @@
         <v>135453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>181</v>
@@ -3425,13 +3389,13 @@
         <v>201418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3410,13 @@
         <v>691657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>580</v>
@@ -3461,13 +3425,13 @@
         <v>639809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1212</v>
@@ -3476,13 +3440,13 @@
         <v>1331467</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3550,13 +3514,13 @@
         <v>105080</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -3565,13 +3529,13 @@
         <v>200345</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>287</v>
@@ -3580,13 +3544,13 @@
         <v>305425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3565,13 @@
         <v>842659</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>811</v>
@@ -3616,13 +3580,13 @@
         <v>850587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>1625</v>
@@ -3631,13 +3595,13 @@
         <v>1693247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3669,13 @@
         <v>376521</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>659</v>
@@ -3720,13 +3684,13 @@
         <v>710163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>1002</v>
@@ -3735,13 +3699,13 @@
         <v>1086684</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,28 +3720,28 @@
         <v>3049337</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7">
         <v>2636</v>
       </c>
       <c r="I20" s="7">
-        <v>2844201</v>
+        <v>2844200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>5501</v>
@@ -3786,13 +3750,13 @@
         <v>5893538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,7 +3783,7 @@
         <v>3295</v>
       </c>
       <c r="I21" s="7">
-        <v>3554364</v>
+        <v>3554363</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3848,7 +3812,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE21C62A-AC8E-4635-BC12-61309F6D3ABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE92188-CCDA-4E02-9F61-13F582F042CD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3886,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,13 +3957,13 @@
         <v>18261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4008,13 +3972,13 @@
         <v>23789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -4023,13 +3987,13 @@
         <v>42050</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4008,13 @@
         <v>98285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -4059,13 +4023,13 @@
         <v>89571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -4074,13 +4038,13 @@
         <v>187856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4112,13 @@
         <v>58332</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>118</v>
@@ -4163,13 +4127,13 @@
         <v>127982</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -4178,13 +4142,13 @@
         <v>186314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4163,13 @@
         <v>499922</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>433</v>
@@ -4214,13 +4178,13 @@
         <v>431497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>914</v>
@@ -4229,13 +4193,13 @@
         <v>931419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4267,13 @@
         <v>92251</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>147</v>
@@ -4318,13 +4282,13 @@
         <v>172975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>238</v>
@@ -4333,13 +4297,13 @@
         <v>265226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4318,13 @@
         <v>930180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>830</v>
@@ -4369,13 +4333,13 @@
         <v>869938</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>1690</v>
@@ -4384,13 +4348,13 @@
         <v>1800118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,7 +4410,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4458,13 +4422,13 @@
         <v>54909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -4473,13 +4437,13 @@
         <v>127244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -4488,13 +4452,13 @@
         <v>182153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4473,13 @@
         <v>704643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>626</v>
@@ -4524,13 +4488,13 @@
         <v>657767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>1270</v>
@@ -4539,13 +4503,13 @@
         <v>1362410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4613,13 +4577,13 @@
         <v>90098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>143</v>
@@ -4628,13 +4592,13 @@
         <v>175567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>231</v>
@@ -4643,13 +4607,13 @@
         <v>265665</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4628,13 @@
         <v>847469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>816</v>
@@ -4679,13 +4643,13 @@
         <v>868212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>1660</v>
@@ -4694,13 +4658,13 @@
         <v>1715681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4732,13 @@
         <v>313851</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>540</v>
@@ -4783,13 +4747,13 @@
         <v>627556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>847</v>
@@ -4798,13 +4762,13 @@
         <v>941407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4783,13 @@
         <v>3080499</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>2798</v>
@@ -4834,13 +4798,13 @@
         <v>2916986</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>5722</v>
@@ -4849,13 +4813,13 @@
         <v>5997485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,7 +4875,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39DA1BB-54D6-4767-8803-24FD03F52F10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCC382B-5352-4840-9D02-4D3C9EBCDA35}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,13 +5020,13 @@
         <v>20641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5071,13 +5035,13 @@
         <v>26954</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -5086,13 +5050,13 @@
         <v>47595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5071,13 @@
         <v>81341</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>181</v>
@@ -5122,13 +5086,13 @@
         <v>103185</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>275</v>
@@ -5137,13 +5101,13 @@
         <v>184527</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5175,13 @@
         <v>74033</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -5226,13 +5190,13 @@
         <v>113293</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>303</v>
@@ -5241,13 +5205,13 @@
         <v>187326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5226,13 @@
         <v>475212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>782</v>
@@ -5277,13 +5241,13 @@
         <v>479669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>1304</v>
@@ -5292,13 +5256,13 @@
         <v>954882</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5330,13 @@
         <v>115051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>336</v>
@@ -5381,13 +5345,13 @@
         <v>205263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>459</v>
@@ -5396,13 +5360,13 @@
         <v>320314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5381,13 @@
         <v>923372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>1178</v>
@@ -5432,13 +5396,13 @@
         <v>853042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>2018</v>
@@ -5447,13 +5411,13 @@
         <v>1776414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5473,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5521,13 +5485,13 @@
         <v>104614</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>230</v>
@@ -5536,13 +5500,13 @@
         <v>144777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
@@ -5551,13 +5515,13 @@
         <v>249391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5536,13 @@
         <v>624158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>817</v>
@@ -5587,13 +5551,13 @@
         <v>729594</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>1387</v>
@@ -5602,13 +5566,13 @@
         <v>1353751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5628,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5676,13 +5640,13 @@
         <v>121153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>355</v>
@@ -5691,13 +5655,13 @@
         <v>243580</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>500</v>
@@ -5706,13 +5670,13 @@
         <v>364733</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5691,13 @@
         <v>842524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>1207</v>
@@ -5742,13 +5706,13 @@
         <v>906852</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>2066</v>
@@ -5757,13 +5721,13 @@
         <v>1749376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5795,13 @@
         <v>435493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>1196</v>
@@ -5846,13 +5810,13 @@
         <v>733867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>1683</v>
@@ -5861,13 +5825,13 @@
         <v>1169360</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5846,13 @@
         <v>2946607</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>4165</v>
@@ -5897,28 +5861,28 @@
         <v>3072342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>7050</v>
       </c>
       <c r="N20" s="7">
-        <v>6018948</v>
+        <v>6018949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,7 +5924,7 @@
         <v>8733</v>
       </c>
       <c r="N21" s="7">
-        <v>7188308</v>
+        <v>7188309</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5974,7 +5938,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P9_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P9_2_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C9539A-5710-4912-9640-F477F67A1D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F7F6DA5-EE84-46C5-A57D-82675D900714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9606D2DD-04C1-4718-8751-E8D43C1AD469}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{697AE244-C286-48A9-8B6D-C569F8B2C084}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,1152 +77,1182 @@
     <t>6,08%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>9,0%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>14,97%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>85,03%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
     <t>89,17%</t>
   </si>
   <si>
@@ -1244,9 +1274,6 @@
     <t>84,27%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
     <t>11,63%</t>
   </si>
   <si>
@@ -1269,9 +1296,6 @@
   </si>
   <si>
     <t>17,19%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
   </si>
   <si>
     <t>85,94%</t>
@@ -1707,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D4E9F1-A3F1-4D87-9C23-10A7E3958D75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09915A7E-D09B-4D7E-924C-05DA99806121}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2144,10 +2168,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>120</v>
@@ -2156,13 +2180,13 @@
         <v>131014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -2171,13 +2195,13 @@
         <v>209458</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2216,13 @@
         <v>883356</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>788</v>
@@ -2207,13 +2231,13 @@
         <v>837379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1608</v>
@@ -2222,13 +2246,13 @@
         <v>1720735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,7 +2308,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2296,13 +2320,13 @@
         <v>60084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2311,13 +2335,13 @@
         <v>114677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -2326,13 +2350,13 @@
         <v>174761</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2371,13 @@
         <v>618425</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
@@ -2362,13 +2386,13 @@
         <v>569164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1164</v>
@@ -2377,13 +2401,13 @@
         <v>1187589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2475,13 @@
         <v>76000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>166</v>
@@ -2466,13 +2490,13 @@
         <v>176153</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>249</v>
@@ -2481,13 +2505,13 @@
         <v>252153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2526,13 @@
         <v>866222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>831</v>
@@ -2517,13 +2541,13 @@
         <v>862459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1742</v>
@@ -2532,13 +2556,13 @@
         <v>1728681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,10 +2633,10 @@
         <v>51</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>474</v>
@@ -2621,13 +2645,13 @@
         <v>493667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>745</v>
@@ -2636,13 +2660,13 @@
         <v>761106</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,16 +2678,16 @@
         <v>2943</v>
       </c>
       <c r="D20" s="7">
-        <v>3009106</v>
+        <v>3009105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>2823</v>
@@ -2672,13 +2696,13 @@
         <v>2885531</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>5766</v>
@@ -2705,7 +2729,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2770,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B786C-4608-47B2-BF4A-0E3AD11F7A77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD14F41-3348-4007-ADB1-4F04D111F20D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3207,10 +3231,10 @@
         <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
@@ -3222,10 +3246,10 @@
         <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>317</v>
@@ -3234,13 +3258,13 @@
         <v>349081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,16 +3276,16 @@
         <v>825</v>
       </c>
       <c r="D11" s="7">
-        <v>896293</v>
+        <v>896294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <v>732</v>
@@ -3270,13 +3294,13 @@
         <v>802772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -3285,13 +3309,13 @@
         <v>1699065</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3327,7 @@
         <v>935</v>
       </c>
       <c r="D12" s="7">
-        <v>1017026</v>
+        <v>1017027</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3347,7 +3371,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3359,13 +3383,13 @@
         <v>65966</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -3374,13 +3398,13 @@
         <v>135453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>181</v>
@@ -3389,13 +3413,13 @@
         <v>201418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3434,13 @@
         <v>691657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>580</v>
@@ -3425,13 +3449,13 @@
         <v>639809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1212</v>
@@ -3440,13 +3464,13 @@
         <v>1331467</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,7 +3526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3514,13 +3538,13 @@
         <v>105080</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -3529,13 +3553,13 @@
         <v>200345</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>287</v>
@@ -3544,13 +3568,13 @@
         <v>305425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3589,13 @@
         <v>842659</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>811</v>
@@ -3580,13 +3604,13 @@
         <v>850587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1625</v>
@@ -3595,13 +3619,13 @@
         <v>1693247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3693,13 @@
         <v>376521</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>659</v>
@@ -3684,13 +3708,13 @@
         <v>710163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>1002</v>
@@ -3699,13 +3723,13 @@
         <v>1086684</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,28 +3744,28 @@
         <v>3049337</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>2636</v>
       </c>
       <c r="I20" s="7">
-        <v>2844200</v>
+        <v>2844201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>5501</v>
@@ -3750,13 +3774,13 @@
         <v>5893538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,7 +3807,7 @@
         <v>3295</v>
       </c>
       <c r="I21" s="7">
-        <v>3554363</v>
+        <v>3554364</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3833,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE92188-CCDA-4E02-9F61-13F582F042CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09604AE6-6E26-4D9F-AC4A-0CB5A1D96E07}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,13 +3981,13 @@
         <v>18261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -3972,13 +3996,13 @@
         <v>23789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -3987,13 +4011,13 @@
         <v>42050</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4032,13 @@
         <v>98285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -4023,13 +4047,13 @@
         <v>89571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -4038,13 +4062,13 @@
         <v>187856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4136,13 @@
         <v>58332</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>118</v>
@@ -4127,13 +4151,13 @@
         <v>127982</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -4142,13 +4166,13 @@
         <v>186314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4187,13 @@
         <v>499922</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>433</v>
@@ -4178,13 +4202,13 @@
         <v>431497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>914</v>
@@ -4193,13 +4217,13 @@
         <v>931419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4291,13 @@
         <v>92251</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>147</v>
@@ -4282,13 +4306,13 @@
         <v>172975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>238</v>
@@ -4297,13 +4321,13 @@
         <v>265226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4342,13 @@
         <v>930180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>830</v>
@@ -4333,13 +4357,13 @@
         <v>869938</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1690</v>
@@ -4348,13 +4372,13 @@
         <v>1800118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4434,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4422,13 +4446,13 @@
         <v>54909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -4437,13 +4461,13 @@
         <v>127244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -4452,13 +4476,13 @@
         <v>182153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4497,13 @@
         <v>704643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>626</v>
@@ -4488,13 +4512,13 @@
         <v>657767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>1270</v>
@@ -4503,13 +4527,13 @@
         <v>1362410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,7 +4589,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4577,13 +4601,13 @@
         <v>90098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>143</v>
@@ -4592,13 +4616,13 @@
         <v>175567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>231</v>
@@ -4607,13 +4631,13 @@
         <v>265665</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4652,13 @@
         <v>847469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>816</v>
@@ -4643,13 +4667,13 @@
         <v>868212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>1660</v>
@@ -4658,13 +4682,13 @@
         <v>1715681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4756,13 @@
         <v>313851</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>540</v>
@@ -4747,13 +4771,13 @@
         <v>627556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>847</v>
@@ -4762,13 +4786,13 @@
         <v>941407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4807,13 @@
         <v>3080499</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>2798</v>
@@ -4798,13 +4822,13 @@
         <v>2916986</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>5722</v>
@@ -4813,13 +4837,13 @@
         <v>5997485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCC382B-5352-4840-9D02-4D3C9EBCDA35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5AC7A-5635-4483-B99B-BF89EF67525C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5020,13 +5044,13 @@
         <v>20641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5035,13 +5059,13 @@
         <v>26954</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -5050,13 +5074,13 @@
         <v>47595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5095,13 @@
         <v>81341</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>181</v>
@@ -5086,13 +5110,13 @@
         <v>103185</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>275</v>
@@ -5101,13 +5125,13 @@
         <v>184527</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5199,13 @@
         <v>74033</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -5190,13 +5214,13 @@
         <v>113293</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>303</v>
@@ -5205,13 +5229,13 @@
         <v>187326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5250,13 @@
         <v>475212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>782</v>
@@ -5241,13 +5265,13 @@
         <v>479669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>1304</v>
@@ -5256,13 +5280,13 @@
         <v>954882</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5354,13 @@
         <v>115051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>336</v>
@@ -5345,13 +5369,13 @@
         <v>205263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>459</v>
@@ -5360,13 +5384,13 @@
         <v>320314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5405,13 @@
         <v>923372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>1178</v>
@@ -5396,13 +5420,13 @@
         <v>853042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>2018</v>
@@ -5411,13 +5435,13 @@
         <v>1776414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,7 +5497,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5485,13 +5509,13 @@
         <v>104614</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>230</v>
@@ -5500,10 +5524,10 @@
         <v>144777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>144</v>
@@ -5515,13 +5539,13 @@
         <v>249391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5560,13 @@
         <v>624158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>817</v>
@@ -5551,13 +5575,13 @@
         <v>729594</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>1387</v>
@@ -5566,13 +5590,13 @@
         <v>1353751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,7 +5652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5640,13 +5664,13 @@
         <v>121153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>355</v>
@@ -5655,13 +5679,13 @@
         <v>243580</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>500</v>
@@ -5670,13 +5694,13 @@
         <v>364733</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5715,13 @@
         <v>842524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>1207</v>
@@ -5706,13 +5730,13 @@
         <v>906852</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>2066</v>
@@ -5721,13 +5745,13 @@
         <v>1749376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5819,13 @@
         <v>435493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>1196</v>
@@ -5810,13 +5834,13 @@
         <v>733867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>1683</v>
@@ -5825,13 +5849,13 @@
         <v>1169360</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5870,13 @@
         <v>2946607</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>4165</v>
@@ -5861,13 +5885,13 @@
         <v>3072342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>7050</v>
@@ -5876,13 +5900,13 @@
         <v>6018949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
